--- a/examples/data/fedbatch_fedbatch1_training_batchdata.xlsx
+++ b/examples/data/fedbatch_fedbatch1_training_batchdata.xlsx
@@ -470,16 +470,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04111446499515962</v>
+        <v>0.06023442391155729</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12.83640750866079</v>
+        <v>7.78662199799618</v>
       </c>
       <c r="F2" t="n">
-        <v>1.077027984019682</v>
+        <v>0.8355331577372636</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +490,16 @@
         <v>4.210526315789473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07502230246461722</v>
+        <v>0.1016815262077757</v>
       </c>
       <c r="D3" t="n">
-        <v>0.008126081986074757</v>
+        <v>0.01071413365994107</v>
       </c>
       <c r="E3" t="n">
-        <v>12.29136940243857</v>
+        <v>8.124973994866018</v>
       </c>
       <c r="F3" t="n">
-        <v>1.287554299809156</v>
+        <v>1.046059473526737</v>
       </c>
     </row>
     <row r="4">
@@ -510,16 +510,16 @@
         <v>8.421052631578947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1403205329466756</v>
+        <v>0.1793109757821951</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02215235105857409</v>
+        <v>0.02785197183043111</v>
       </c>
       <c r="E4" t="n">
-        <v>11.81767945347954</v>
+        <v>8.249759382782774</v>
       </c>
       <c r="F4" t="n">
-        <v>1.49808061559863</v>
+        <v>1.256585789316211</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         <v>12.63157894736842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2670773267489504</v>
+        <v>0.3252537532966237</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04823212805802399</v>
+        <v>0.05819003168524032</v>
       </c>
       <c r="E5" t="n">
-        <v>11.30562084830525</v>
+        <v>8.157577587222402</v>
       </c>
       <c r="F5" t="n">
-        <v>1.708606931388104</v>
+        <v>1.467112105105685</v>
       </c>
     </row>
     <row r="6">
@@ -550,16 +550,16 @@
         <v>16.84210526315789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5144718505592935</v>
+        <v>0.601387378803919</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09827963790204813</v>
+        <v>0.1142775957645552</v>
       </c>
       <c r="E6" t="n">
-        <v>10.60901091944569</v>
+        <v>7.754864167724145</v>
       </c>
       <c r="F6" t="n">
-        <v>1.919133247177578</v>
+        <v>1.677638420895159</v>
       </c>
     </row>
     <row r="7">
@@ -570,16 +570,16 @@
         <v>21.05263157894737</v>
       </c>
       <c r="C7" t="n">
-        <v>0.997444434064622</v>
+        <v>1.12046783802086</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1953303413871788</v>
+        <v>0.2187627165160679</v>
       </c>
       <c r="E7" t="n">
-        <v>9.48114666009619</v>
+        <v>6.832933855918182</v>
       </c>
       <c r="F7" t="n">
-        <v>2.129659562967051</v>
+        <v>1.888164736684632</v>
       </c>
     </row>
     <row r="8">
@@ -590,16 +590,16 @@
         <v>25.26315789473684</v>
       </c>
       <c r="C8" t="n">
-        <v>1.92910699648112</v>
+        <v>2.076518320201096</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3820369622925913</v>
+        <v>0.4105075356310795</v>
       </c>
       <c r="E8" t="n">
-        <v>7.485035364640079</v>
+        <v>5.013730433949394</v>
       </c>
       <c r="F8" t="n">
-        <v>2.340185878756524</v>
+        <v>2.098691052474106</v>
       </c>
     </row>
     <row r="9">
@@ -610,16 +610,16 @@
         <v>29.47368421052632</v>
       </c>
       <c r="C9" t="n">
-        <v>3.624927544380887</v>
+        <v>3.619462182336178</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7215134252542386</v>
+        <v>0.7195335692887874</v>
       </c>
       <c r="E9" t="n">
-        <v>3.982527453273933</v>
+        <v>2.003808243426637</v>
       </c>
       <c r="F9" t="n">
-        <v>2.550712194545997</v>
+        <v>2.309217368263579</v>
       </c>
     </row>
     <row r="10">
@@ -630,16 +630,16 @@
         <v>33.68421052631579</v>
       </c>
       <c r="C10" t="n">
-        <v>5.445692195940107</v>
+        <v>4.575085386328919</v>
       </c>
       <c r="D10" t="n">
-        <v>1.085931079156712</v>
+        <v>0.9110223964786516</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2470370688339132</v>
+        <v>0.155832053923968</v>
       </c>
       <c r="F10" t="n">
-        <v>2.761238510335472</v>
+        <v>2.519743684053053</v>
       </c>
     </row>
     <row r="11">
@@ -650,16 +650,16 @@
         <v>37.89473684210526</v>
       </c>
       <c r="C11" t="n">
-        <v>5.487347858440891</v>
+        <v>4.624648523884468</v>
       </c>
       <c r="D11" t="n">
-        <v>1.094489428051943</v>
+        <v>0.9212430467963898</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08307747926145979</v>
+        <v>0.1102186797277815</v>
       </c>
       <c r="F11" t="n">
-        <v>2.971764826124949</v>
+        <v>2.730269999842527</v>
       </c>
     </row>
     <row r="12">
@@ -670,16 +670,16 @@
         <v>42.10526315789473</v>
       </c>
       <c r="C12" t="n">
-        <v>5.4551054437033</v>
+        <v>4.652281167845782</v>
       </c>
       <c r="D12" t="n">
-        <v>1.08823809833533</v>
+        <v>0.9270334967962661</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07758467388358066</v>
+        <v>0.1008045077889436</v>
       </c>
       <c r="F12" t="n">
-        <v>3.182291141914422</v>
+        <v>2.940796315632</v>
       </c>
     </row>
     <row r="13">
@@ -690,16 +690,16 @@
         <v>46.31578947368421</v>
       </c>
       <c r="C13" t="n">
-        <v>5.426837115662631</v>
+        <v>4.67608496381246</v>
       </c>
       <c r="D13" t="n">
-        <v>1.08275712050793</v>
+        <v>0.9320229143192681</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07282747032018035</v>
+        <v>0.09292180075205153</v>
       </c>
       <c r="F13" t="n">
-        <v>3.392817457703895</v>
+        <v>3.151322631421474</v>
       </c>
     </row>
     <row r="14">
@@ -710,16 +710,16 @@
         <v>50.52631578947368</v>
       </c>
       <c r="C14" t="n">
-        <v>5.401875142498548</v>
+        <v>4.696804594646486</v>
       </c>
       <c r="D14" t="n">
-        <v>1.077917234738047</v>
+        <v>0.9363668606467952</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06861986895276886</v>
+        <v>0.08623210571141594</v>
       </c>
       <c r="F14" t="n">
-        <v>3.60334377349337</v>
+        <v>3.361848947210948</v>
       </c>
     </row>
     <row r="15">
@@ -730,16 +730,16 @@
         <v>54.73684210526316</v>
       </c>
       <c r="C15" t="n">
-        <v>5.37967149338763</v>
+        <v>4.715063343852605</v>
       </c>
       <c r="D15" t="n">
-        <v>1.073612176559916</v>
+        <v>0.940195055574248</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06487182767693689</v>
+        <v>0.08036846867924945</v>
       </c>
       <c r="F15" t="n">
-        <v>3.813870089282843</v>
+        <v>3.572375263000422</v>
       </c>
     </row>
     <row r="16">
@@ -750,16 +750,16 @@
         <v>58.94736842105263</v>
       </c>
       <c r="C16" t="n">
-        <v>5.359792909040635</v>
+        <v>4.731273780560666</v>
       </c>
       <c r="D16" t="n">
-        <v>1.06975793653029</v>
+        <v>0.9435939489320898</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0615119655330746</v>
+        <v>0.07518955471799853</v>
       </c>
       <c r="F16" t="n">
-        <v>4.024396405072317</v>
+        <v>3.782901578789895</v>
       </c>
     </row>
     <row r="17">
@@ -770,16 +770,16 @@
         <v>63.1578947368421</v>
       </c>
       <c r="C17" t="n">
-        <v>5.341892350417757</v>
+        <v>4.745709293200104</v>
       </c>
       <c r="D17" t="n">
-        <v>1.066287223834718</v>
+        <v>0.9466213244152647</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05848295420463386</v>
+        <v>0.07068819491780641</v>
       </c>
       <c r="F17" t="n">
-        <v>4.234922720861791</v>
+        <v>3.993427894579369</v>
       </c>
     </row>
     <row r="18">
@@ -790,16 +790,16 @@
         <v>67.36842105263158</v>
       </c>
       <c r="C18" t="n">
-        <v>5.325688571264442</v>
+        <v>4.758687359147713</v>
       </c>
       <c r="D18" t="n">
-        <v>1.063145505181199</v>
+        <v>0.9493431613353929</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05573822316189394</v>
+        <v>0.06666095219470854</v>
       </c>
       <c r="F18" t="n">
-        <v>4.445449036651262</v>
+        <v>4.203954210368843</v>
       </c>
     </row>
     <row r="19">
@@ -810,16 +810,16 @@
         <v>71.57894736842105</v>
       </c>
       <c r="C19" t="n">
-        <v>5.310951234562777</v>
+        <v>4.770379574700702</v>
       </c>
       <c r="D19" t="n">
-        <v>1.060288118744331</v>
+        <v>0.9517957889720624</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05323955004167303</v>
+        <v>0.06311383539853964</v>
       </c>
       <c r="F19" t="n">
-        <v>4.655975352440739</v>
+        <v>4.414480526158317</v>
       </c>
     </row>
     <row r="20">
@@ -830,16 +830,16 @@
         <v>75.78947368421052</v>
       </c>
       <c r="C20" t="n">
-        <v>5.297489888019181</v>
+        <v>4.780944619904958</v>
       </c>
       <c r="D20" t="n">
-        <v>1.057678136428747</v>
+        <v>0.9540125873771281</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05095526979018154</v>
+        <v>0.06001510449886274</v>
       </c>
       <c r="F20" t="n">
-        <v>4.866501668230209</v>
+        <v>4.62500684194779</v>
       </c>
     </row>
     <row r="21">
@@ -850,16 +850,16 @@
         <v>80</v>
       </c>
       <c r="C21" t="n">
-        <v>5.285145689446153</v>
+        <v>4.790612707959343</v>
       </c>
       <c r="D21" t="n">
-        <v>1.055284759369238</v>
+        <v>0.9560409569238046</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04885892646225078</v>
+        <v>0.05714021256391905</v>
       </c>
       <c r="F21" t="n">
-        <v>5.077027984019682</v>
+        <v>4.835533157737263</v>
       </c>
     </row>
   </sheetData>
@@ -916,16 +916,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06023442391155729</v>
+        <v>0.0933699612962119</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.78662199799618</v>
+        <v>11.30952721234591</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8355331577372636</v>
+        <v>1.430827078006325</v>
       </c>
     </row>
     <row r="3">
@@ -936,16 +936,16 @@
         <v>4.210526315789473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1016772484922575</v>
+        <v>0.1762656684609593</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01071307872803085</v>
+        <v>0.01897433263446438</v>
       </c>
       <c r="E3" t="n">
-        <v>8.124947910415784</v>
+        <v>10.9518193707754</v>
       </c>
       <c r="F3" t="n">
-        <v>1.046059473526737</v>
+        <v>1.641353393795799</v>
       </c>
     </row>
     <row r="4">
@@ -956,16 +956,16 @@
         <v>8.421052631578947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1792973944279476</v>
+        <v>0.3375515921810096</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02784922417726769</v>
+        <v>0.05308219232346377</v>
       </c>
       <c r="E4" t="n">
-        <v>8.249781093431809</v>
+        <v>10.48096085494649</v>
       </c>
       <c r="F4" t="n">
-        <v>1.256585789316211</v>
+        <v>1.851879709585273</v>
       </c>
     </row>
     <row r="5">
@@ -976,16 +976,16 @@
         <v>12.63157894736842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3253684860700553</v>
+        <v>0.6521431797454593</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05821289090482293</v>
+        <v>0.1174732214337722</v>
       </c>
       <c r="E5" t="n">
-        <v>8.157332948919978</v>
+        <v>9.733775597998735</v>
       </c>
       <c r="F5" t="n">
-        <v>1.467112105105685</v>
+        <v>2.062406025374746</v>
       </c>
     </row>
     <row r="6">
@@ -996,16 +996,16 @@
         <v>16.84210526315789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6014058400779244</v>
+        <v>1.263142286481872</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1142813223162224</v>
+        <v>0.2408730633477877</v>
       </c>
       <c r="E6" t="n">
-        <v>7.754833203581629</v>
+        <v>8.415624868752865</v>
       </c>
       <c r="F6" t="n">
-        <v>1.677638420895159</v>
+        <v>2.27293234116422</v>
       </c>
     </row>
     <row r="7">
@@ -1016,16 +1016,16 @@
         <v>21.05263157894737</v>
       </c>
       <c r="C7" t="n">
-        <v>1.121245304222195</v>
+        <v>2.42739088883768</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2189181850646053</v>
+        <v>0.4747192810188431</v>
       </c>
       <c r="E7" t="n">
-        <v>6.831374633813391</v>
+        <v>6.007282605225781</v>
       </c>
       <c r="F7" t="n">
-        <v>1.888164736684632</v>
+        <v>2.483458656953694</v>
       </c>
     </row>
     <row r="8">
@@ -1036,16 +1036,16 @@
         <v>25.26315789473684</v>
       </c>
       <c r="C8" t="n">
-        <v>2.075384383907211</v>
+        <v>4.367078889468436</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4102807579577832</v>
+        <v>0.8634976624457579</v>
       </c>
       <c r="E8" t="n">
-        <v>5.015999971825808</v>
+        <v>2.060538394181485</v>
       </c>
       <c r="F8" t="n">
-        <v>2.098691052474106</v>
+        <v>2.693984972743167</v>
       </c>
     </row>
     <row r="9">
@@ -1056,16 +1056,16 @@
         <v>29.47368421052632</v>
       </c>
       <c r="C9" t="n">
-        <v>3.618705039971208</v>
+        <v>5.320010485009949</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7193821408732387</v>
+        <v>1.054802871684988</v>
       </c>
       <c r="E9" t="n">
-        <v>2.005322538136601</v>
+        <v>0.09707361145127727</v>
       </c>
       <c r="F9" t="n">
-        <v>2.309217368263581</v>
+        <v>2.904511288532641</v>
       </c>
     </row>
     <row r="10">
@@ -1076,16 +1076,16 @@
         <v>33.68421052631579</v>
       </c>
       <c r="C10" t="n">
-        <v>4.574987399159083</v>
+        <v>5.302705566967857</v>
       </c>
       <c r="D10" t="n">
-        <v>0.911002799053182</v>
+        <v>1.051963607381717</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1560280297398896</v>
+        <v>0.08186773857867993</v>
       </c>
       <c r="F10" t="n">
-        <v>2.519743684053054</v>
+        <v>3.115037604322114</v>
       </c>
     </row>
     <row r="11">
@@ -1096,16 +1096,16 @@
         <v>37.89473684210526</v>
       </c>
       <c r="C11" t="n">
-        <v>4.624644756654575</v>
+        <v>5.283563770962019</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9212422933584974</v>
+        <v>1.048678251045567</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1102262155922592</v>
+        <v>0.07664283332718692</v>
       </c>
       <c r="F11" t="n">
-        <v>2.730269999842526</v>
+        <v>3.325563920111588</v>
       </c>
     </row>
     <row r="12">
@@ -1116,16 +1116,16 @@
         <v>42.10526315789473</v>
       </c>
       <c r="C12" t="n">
-        <v>4.652301521234558</v>
+        <v>5.266740114958337</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9270375674751168</v>
+        <v>1.0457918657688</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1007638012015704</v>
+        <v>0.0719623322332556</v>
       </c>
       <c r="F12" t="n">
-        <v>2.940796315632</v>
+        <v>3.536090235901062</v>
       </c>
     </row>
     <row r="13">
@@ -1136,16 +1136,16 @@
         <v>46.31578947368421</v>
       </c>
       <c r="C13" t="n">
-        <v>4.676119202600066</v>
+        <v>5.251807841857771</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9320297620287403</v>
+        <v>1.043229999552043</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09285331482919618</v>
+        <v>0.06780642555008554</v>
       </c>
       <c r="F13" t="n">
-        <v>3.151322631421472</v>
+        <v>3.746616551690535</v>
       </c>
     </row>
     <row r="14">
@@ -1156,16 +1156,16 @@
         <v>50.52631578947368</v>
       </c>
       <c r="C14" t="n">
-        <v>4.696871411621188</v>
+        <v>5.238386833304493</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9363802239640134</v>
+        <v>1.040925208683828</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08609845825916491</v>
+        <v>0.06424787451342374</v>
       </c>
       <c r="F14" t="n">
-        <v>3.361848947210947</v>
+        <v>3.957142867480009</v>
       </c>
     </row>
     <row r="15">
@@ -1176,16 +1176,16 @@
         <v>54.73684210526316</v>
       </c>
       <c r="C15" t="n">
-        <v>4.715116364008508</v>
+        <v>5.226409227625818</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9402056595090728</v>
+        <v>1.038870767149419</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0802624116274092</v>
+        <v>0.06087383614330349</v>
       </c>
       <c r="F15" t="n">
-        <v>3.57237526300042</v>
+        <v>4.167669183269483</v>
       </c>
     </row>
     <row r="16">
@@ -1196,16 +1196,16 @@
         <v>58.94736842105263</v>
       </c>
       <c r="C16" t="n">
-        <v>4.731284048536583</v>
+        <v>5.215521220587504</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9435960034158097</v>
+        <v>1.037001443594926</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07516917313189267</v>
+        <v>0.05794886428590592</v>
       </c>
       <c r="F16" t="n">
-        <v>3.782901578789893</v>
+        <v>4.378195499058957</v>
       </c>
     </row>
     <row r="17">
@@ -1216,16 +1216,16 @@
         <v>63.1578947368421</v>
       </c>
       <c r="C17" t="n">
-        <v>4.745711043966542</v>
+        <v>5.205634389457903</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9466216768555542</v>
+        <v>1.035304068216703</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07068509070647257</v>
+        <v>0.0552880573820048</v>
       </c>
       <c r="F17" t="n">
-        <v>3.993427894579367</v>
+        <v>4.588721814848429</v>
       </c>
     </row>
     <row r="18">
@@ -1236,16 +1236,16 @@
         <v>67.36842105263158</v>
       </c>
       <c r="C18" t="n">
-        <v>4.758664704488604</v>
+        <v>5.196667218181021</v>
       </c>
       <c r="D18" t="n">
-        <v>0.949338633731648</v>
+        <v>1.03376606036035</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06670683970077504</v>
+        <v>0.05275617498773562</v>
       </c>
       <c r="F18" t="n">
-        <v>4.203954210368838</v>
+        <v>4.799248130637903</v>
       </c>
     </row>
     <row r="19">
@@ -1256,16 +1256,16 @@
         <v>71.57894736842105</v>
       </c>
       <c r="C19" t="n">
-        <v>4.770360221598899</v>
+        <v>5.188363305138366</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9517919224454828</v>
+        <v>1.032339236526272</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06315325281611231</v>
+        <v>0.05061788506933083</v>
       </c>
       <c r="F19" t="n">
-        <v>4.41448052615831</v>
+        <v>5.009774446427377</v>
       </c>
     </row>
     <row r="20">
@@ -1276,16 +1276,16 @@
         <v>75.78947368421052</v>
       </c>
       <c r="C20" t="n">
-        <v>4.780972739512099</v>
+        <v>5.180836363707479</v>
       </c>
       <c r="D20" t="n">
-        <v>0.95401821595481</v>
+        <v>1.031048936653999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05995967421705275</v>
+        <v>0.0484376532135264</v>
       </c>
       <c r="F20" t="n">
-        <v>4.625006841947784</v>
+        <v>5.220300762216851</v>
       </c>
     </row>
     <row r="21">
@@ -1296,16 +1296,16 @@
         <v>80</v>
       </c>
       <c r="C21" t="n">
-        <v>4.790646275646248</v>
+        <v>5.173814494957907</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9560476755331145</v>
+        <v>1.029842975489099</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05707395833805318</v>
+        <v>0.04658343884496986</v>
       </c>
       <c r="F21" t="n">
-        <v>4.835533157737254</v>
+        <v>5.430827078006326</v>
       </c>
     </row>
   </sheetData>
@@ -1382,13 +1382,13 @@
         <v>4.210526315789473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02674502122548207</v>
+        <v>0.02674730635512183</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002744035217016441</v>
+        <v>0.002744515754839152</v>
       </c>
       <c r="E3" t="n">
-        <v>6.170656523682311</v>
+        <v>6.170686033470663</v>
       </c>
       <c r="F3" t="n">
         <v>1.421944004949464</v>
@@ -1402,16 +1402,16 @@
         <v>8.421052631578947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04826204192231629</v>
+        <v>0.04826292330985362</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007383380844767195</v>
+        <v>0.007383555307668386</v>
       </c>
       <c r="E4" t="n">
-        <v>6.614563328348384</v>
+        <v>6.614558935335749</v>
       </c>
       <c r="F4" t="n">
-        <v>1.632470320738937</v>
+        <v>1.632470320738938</v>
       </c>
     </row>
     <row r="5">
@@ -1422,13 +1422,13 @@
         <v>12.63157894736842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08904215081937782</v>
+        <v>0.08903120425119312</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01579859465518763</v>
+        <v>0.01579642210531287</v>
       </c>
       <c r="E5" t="n">
-        <v>6.908697066898255</v>
+        <v>6.90874325879147</v>
       </c>
       <c r="F5" t="n">
         <v>1.842996636528411</v>
@@ -1442,16 +1442,16 @@
         <v>16.84210526315789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1669517099314229</v>
+        <v>0.1668944615320698</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03158655397146958</v>
+        <v>0.03157509458233074</v>
       </c>
       <c r="E6" t="n">
-        <v>7.051539901616144</v>
+        <v>7.051640325013925</v>
       </c>
       <c r="F6" t="n">
-        <v>2.053522952317884</v>
+        <v>2.053522952317885</v>
       </c>
     </row>
     <row r="7">
@@ -1462,16 +1462,16 @@
         <v>21.05263157894737</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3165619674633622</v>
+        <v>0.3164258747937365</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06167633364777629</v>
+        <v>0.06164912291742876</v>
       </c>
       <c r="E7" t="n">
-        <v>6.995438202752186</v>
+        <v>6.995721699229859</v>
       </c>
       <c r="F7" t="n">
-        <v>2.264049268107357</v>
+        <v>2.264049268107359</v>
       </c>
     </row>
     <row r="8">
@@ -1482,16 +1482,16 @@
         <v>25.26315789473684</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6038456487849923</v>
+        <v>0.6032610539608131</v>
       </c>
       <c r="D8" t="n">
-        <v>0.119272258891532</v>
+        <v>0.119155335402711</v>
       </c>
       <c r="E8" t="n">
-        <v>6.622622638410854</v>
+        <v>6.623785270628289</v>
       </c>
       <c r="F8" t="n">
-        <v>2.474575583896831</v>
+        <v>2.474575583896832</v>
       </c>
     </row>
     <row r="9">
@@ -1502,16 +1502,16 @@
         <v>29.47368421052632</v>
       </c>
       <c r="C9" t="n">
-        <v>1.149407457333423</v>
+        <v>1.149153215431636</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2285019832638932</v>
+        <v>0.2284511349412285</v>
       </c>
       <c r="E9" t="n">
-        <v>5.701613985481321</v>
+        <v>5.702122552909716</v>
       </c>
       <c r="F9" t="n">
-        <v>2.685101899686305</v>
+        <v>2.685101899686306</v>
       </c>
     </row>
     <row r="10">
@@ -1522,16 +1522,16 @@
         <v>33.68421052631579</v>
       </c>
       <c r="C10" t="n">
-        <v>2.141142274799283</v>
+        <v>2.140752635907887</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4269492437420051</v>
+        <v>0.4268713160064007</v>
       </c>
       <c r="E10" t="n">
-        <v>3.863522936978512</v>
+        <v>3.864302276617059</v>
       </c>
       <c r="F10" t="n">
-        <v>2.895628215475779</v>
+        <v>2.89562821547578</v>
       </c>
     </row>
     <row r="11">
@@ -1542,13 +1542,13 @@
         <v>37.89473684210526</v>
       </c>
       <c r="C11" t="n">
-        <v>3.589970346109046</v>
+        <v>3.589120677366098</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7168015593004</v>
+        <v>0.7166316255852384</v>
       </c>
       <c r="E11" t="n">
-        <v>1.09153868694706</v>
+        <v>1.093238072885591</v>
       </c>
       <c r="F11" t="n">
         <v>3.106154531265253</v>
@@ -1562,13 +1562,13 @@
         <v>42.10526315789473</v>
       </c>
       <c r="C12" t="n">
-        <v>4.1353509820449</v>
+        <v>4.135366535722288</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8259533810544809</v>
+        <v>0.8259564918233014</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1104952609734997</v>
+        <v>0.110464201948241</v>
       </c>
       <c r="F12" t="n">
         <v>3.316680847054728</v>
@@ -1582,16 +1582,16 @@
         <v>46.31578947368421</v>
       </c>
       <c r="C13" t="n">
-        <v>4.19258077711477</v>
+        <v>4.192567737080391</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8374659987621874</v>
+        <v>0.8374633907866437</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09265618912565639</v>
+        <v>0.09268231460938259</v>
       </c>
       <c r="F13" t="n">
-        <v>3.5272071628442</v>
+        <v>3.527207162844201</v>
       </c>
     </row>
     <row r="14">
@@ -1602,16 +1602,16 @@
         <v>50.52631578947368</v>
       </c>
       <c r="C14" t="n">
-        <v>4.23883374090372</v>
+        <v>4.238804898843997</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8467757411641288</v>
+        <v>0.8467699727834284</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08588655421554882</v>
+        <v>0.08594428362216343</v>
       </c>
       <c r="F14" t="n">
-        <v>3.737733478633673</v>
+        <v>3.737733478633675</v>
       </c>
     </row>
     <row r="15">
@@ -1622,16 +1622,16 @@
         <v>54.73684210526316</v>
       </c>
       <c r="C15" t="n">
-        <v>4.280040758792207</v>
+        <v>4.280030214940528</v>
       </c>
       <c r="D15" t="n">
-        <v>0.855069986510184</v>
+        <v>0.8550678777764419</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08006566421208854</v>
+        <v>0.0800868049574205</v>
       </c>
       <c r="F15" t="n">
-        <v>3.948259794423146</v>
+        <v>3.948259794423149</v>
       </c>
     </row>
     <row r="16">
@@ -1642,16 +1642,16 @@
         <v>58.94736842105263</v>
       </c>
       <c r="C16" t="n">
-        <v>4.316999304351011</v>
+        <v>4.317027683652253</v>
       </c>
       <c r="D16" t="n">
-        <v>0.862509187473111</v>
+        <v>0.8625148633735041</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07498711488721252</v>
+        <v>0.074930414472895</v>
       </c>
       <c r="F16" t="n">
-        <v>4.15878611021262</v>
+        <v>4.158786110212623</v>
       </c>
     </row>
     <row r="17">
@@ -1662,16 +1662,16 @@
         <v>63.1578947368421</v>
       </c>
       <c r="C17" t="n">
-        <v>4.350336947269668</v>
+        <v>4.350351934945097</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8692196313865788</v>
+        <v>0.8692226288924895</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07051678941729031</v>
+        <v>0.07048677177696158</v>
       </c>
       <c r="F17" t="n">
-        <v>4.369312426002098</v>
+        <v>4.369312426002097</v>
       </c>
     </row>
     <row r="18">
@@ -1682,16 +1682,16 @@
         <v>67.36842105263158</v>
       </c>
       <c r="C18" t="n">
-        <v>4.380562992134352</v>
+        <v>4.380570821223334</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8753038105276372</v>
+        <v>0.8753053759457015</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06655122276499267</v>
+        <v>0.06653498518235101</v>
       </c>
       <c r="F18" t="n">
-        <v>4.579838741791572</v>
+        <v>4.579838741791571</v>
       </c>
     </row>
     <row r="19">
@@ -1702,16 +1702,16 @@
         <v>71.57894736842105</v>
       </c>
       <c r="C19" t="n">
-        <v>4.408094763908596</v>
+        <v>4.408125222259422</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8808457096945387</v>
+        <v>0.8808518006717392</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0630092133299351</v>
+        <v>0.06294729218878727</v>
       </c>
       <c r="F19" t="n">
-        <v>4.790365057581045</v>
+        <v>4.790365057581044</v>
       </c>
     </row>
     <row r="20">
@@ -1722,16 +1722,16 @@
         <v>75.78947368421052</v>
       </c>
       <c r="C20" t="n">
-        <v>4.433278081406304</v>
+        <v>4.43327771988446</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8859149252454953</v>
+        <v>0.8859148520264206</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05982616239683913</v>
+        <v>0.05982555959054702</v>
       </c>
       <c r="F20" t="n">
-        <v>5.000891373370519</v>
+        <v>5.000891373370518</v>
       </c>
     </row>
     <row r="21">
@@ -1742,16 +1742,16 @@
         <v>80</v>
       </c>
       <c r="C21" t="n">
-        <v>4.456401848709296</v>
+        <v>4.456394475941403</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8905696007038958</v>
+        <v>0.8905681250665388</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05694999878622499</v>
+        <v>0.05696317340474719</v>
       </c>
       <c r="F21" t="n">
-        <v>5.211417689159989</v>
+        <v>5.211417689159991</v>
       </c>
     </row>
   </sheetData>
